--- a/Report/煤炭总医院.xlsx
+++ b/Report/煤炭总医院.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="3495" yWindow="540" windowWidth="26235" windowHeight="16245" tabRatio="938" activeTab="15"/>
+    <workbookView xWindow="3495" yWindow="540" windowWidth="26235" windowHeight="16245" tabRatio="938" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="关键指标" sheetId="1" r:id="rId1"/>
@@ -38,14 +38,14 @@
   </definedNames>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId18"/>
-    <pivotCache cacheId="1" r:id="rId19"/>
-    <pivotCache cacheId="2" r:id="rId20"/>
-    <pivotCache cacheId="3" r:id="rId21"/>
-    <pivotCache cacheId="4" r:id="rId22"/>
-    <pivotCache cacheId="5" r:id="rId23"/>
-    <pivotCache cacheId="6" r:id="rId24"/>
-    <pivotCache cacheId="7" r:id="rId25"/>
+    <pivotCache cacheId="56" r:id="rId18"/>
+    <pivotCache cacheId="57" r:id="rId19"/>
+    <pivotCache cacheId="58" r:id="rId20"/>
+    <pivotCache cacheId="59" r:id="rId21"/>
+    <pivotCache cacheId="60" r:id="rId22"/>
+    <pivotCache cacheId="61" r:id="rId23"/>
+    <pivotCache cacheId="62" r:id="rId24"/>
+    <pivotCache cacheId="63" r:id="rId25"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -2303,6 +2303,31 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="178" formatCode="0.0"/>
     </dxf>
     <dxf>
@@ -2324,6 +2349,69 @@
       <font>
         <name val="微软雅黑"/>
       </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <name val="微软雅黑"/>
+      </font>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="178" formatCode="0.0"/>
     </dxf>
     <dxf>
       <font>
@@ -2438,36 +2526,6 @@
       <numFmt numFmtId="178" formatCode="0.0"/>
     </dxf>
     <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
       <alignment horizontal="center"/>
     </dxf>
     <dxf>
@@ -2503,64 +2561,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="178" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="178" formatCode="0.0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <name val="微软雅黑"/>
-      </font>
     </dxf>
     <dxf>
       <font>
@@ -7429,248 +7429,82 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="X17:AB18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="61" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="I6:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="11">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
+      <items count="4">
         <item h="1" x="1"/>
-        <item h="1" x="0"/>
+        <item h="1" m="1" x="2"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
       <items count="8">
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
         <item h="1" x="0"/>
-        <item m="1" x="2"/>
-        <item m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="6"/>
         <item h="1" x="1"/>
-        <item h="1" m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="144">
-        <item m="1" x="89"/>
-        <item m="1" x="7"/>
-        <item m="1" x="67"/>
-        <item m="1" x="127"/>
-        <item m="1" x="45"/>
-        <item m="1" x="106"/>
-        <item m="1" x="24"/>
-        <item m="1" x="83"/>
-        <item m="1" x="1"/>
-        <item m="1" x="94"/>
-        <item m="1" x="12"/>
-        <item m="1" x="71"/>
-        <item m="1" x="131"/>
-        <item m="1" x="49"/>
-        <item m="1" x="110"/>
-        <item m="1" x="28"/>
-        <item m="1" x="87"/>
-        <item m="1" x="5"/>
-        <item m="1" x="64"/>
-        <item m="1" x="124"/>
-        <item m="1" x="42"/>
-        <item m="1" x="103"/>
-        <item m="1" x="21"/>
-        <item m="1" x="80"/>
-        <item m="1" x="140"/>
-        <item m="1" x="58"/>
-        <item m="1" x="119"/>
-        <item m="1" x="37"/>
-        <item m="1" x="98"/>
-        <item m="1" x="16"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="53"/>
-        <item m="1" x="114"/>
-        <item m="1" x="32"/>
-        <item m="1" x="92"/>
-        <item m="1" x="10"/>
-        <item m="1" x="70"/>
-        <item m="1" x="130"/>
-        <item m="1" x="48"/>
-        <item m="1" x="109"/>
-        <item m="1" x="27"/>
-        <item m="1" x="86"/>
-        <item m="1" x="4"/>
-        <item m="1" x="63"/>
-        <item m="1" x="123"/>
-        <item m="1" x="41"/>
-        <item m="1" x="102"/>
-        <item m="1" x="20"/>
-        <item m="1" x="78"/>
-        <item m="1" x="138"/>
-        <item m="1" x="56"/>
-        <item m="1" x="117"/>
-        <item m="1" x="35"/>
-        <item m="1" x="96"/>
-        <item m="1" x="14"/>
-        <item m="1" x="73"/>
-        <item m="1" x="133"/>
-        <item m="1" x="51"/>
-        <item m="1" x="112"/>
-        <item m="1" x="30"/>
-        <item m="1" x="90"/>
-        <item m="1" x="8"/>
-        <item m="1" x="68"/>
-        <item m="1" x="128"/>
-        <item m="1" x="46"/>
-        <item m="1" x="107"/>
-        <item m="1" x="25"/>
-        <item m="1" x="84"/>
-        <item m="1" x="2"/>
-        <item m="1" x="61"/>
-        <item m="1" x="95"/>
-        <item m="1" x="13"/>
-        <item m="1" x="72"/>
-        <item m="1" x="132"/>
-        <item m="1" x="50"/>
-        <item m="1" x="111"/>
-        <item m="1" x="29"/>
-        <item m="1" x="88"/>
-        <item m="1" x="6"/>
-        <item m="1" x="65"/>
-        <item m="1" x="125"/>
-        <item m="1" x="43"/>
-        <item m="1" x="104"/>
-        <item m="1" x="22"/>
-        <item m="1" x="81"/>
-        <item m="1" x="141"/>
-        <item m="1" x="59"/>
-        <item m="1" x="120"/>
-        <item m="1" x="38"/>
-        <item m="1" x="99"/>
-        <item m="1" x="17"/>
-        <item m="1" x="76"/>
-        <item m="1" x="136"/>
-        <item m="1" x="54"/>
-        <item m="1" x="115"/>
-        <item m="1" x="33"/>
-        <item m="1" x="93"/>
-        <item m="1" x="11"/>
-        <item m="1" x="79"/>
-        <item m="1" x="139"/>
-        <item m="1" x="57"/>
-        <item m="1" x="118"/>
-        <item m="1" x="36"/>
-        <item m="1" x="97"/>
-        <item m="1" x="15"/>
-        <item m="1" x="74"/>
-        <item m="1" x="134"/>
-        <item m="1" x="52"/>
-        <item m="1" x="113"/>
-        <item m="1" x="31"/>
-        <item m="1" x="91"/>
-        <item m="1" x="9"/>
-        <item x="0"/>
-        <item m="1" x="69"/>
-        <item m="1" x="129"/>
-        <item m="1" x="47"/>
-        <item m="1" x="108"/>
-        <item m="1" x="26"/>
-        <item m="1" x="85"/>
-        <item m="1" x="3"/>
-        <item m="1" x="62"/>
-        <item m="1" x="122"/>
-        <item m="1" x="40"/>
-        <item m="1" x="101"/>
-        <item m="1" x="19"/>
-        <item m="1" x="77"/>
-        <item m="1" x="137"/>
-        <item m="1" x="55"/>
-        <item m="1" x="116"/>
-        <item m="1" x="34"/>
-        <item m="1" x="66"/>
-        <item m="1" x="126"/>
-        <item m="1" x="44"/>
-        <item m="1" x="105"/>
-        <item m="1" x="23"/>
-        <item m="1" x="82"/>
-        <item m="1" x="142"/>
-        <item m="1" x="60"/>
-        <item m="1" x="121"/>
-        <item m="1" x="39"/>
-        <item m="1" x="100"/>
-        <item m="1" x="18"/>
+        <item x="2"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="6">
+        <item x="2"/>
+        <item x="1"/>
+        <item m="1" x="3"/>
+        <item m="1" x="4"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
     <pivotField showAll="0"/>
   </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i/>
-    <i i="1">
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
       <x v="1"/>
     </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
   </colItems>
-  <pageFields count="3">
+  <pageFields count="2">
     <pageField fld="0" hier="-1"/>
     <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
   </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  <dataFields count="1">
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
-  <formats count="4">
+  <formats count="5">
+    <format dxfId="4">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
     <format dxfId="3">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
     <format dxfId="2">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
     </format>
     <format dxfId="1">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
     </format>
     <format dxfId="0">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -7678,256 +7512,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable10.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="X6:AB7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item h="1" x="1"/>
-        <item h="1" x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="0"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="1"/>
-        <item m="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="144">
-        <item m="1" x="89"/>
-        <item m="1" x="7"/>
-        <item m="1" x="67"/>
-        <item m="1" x="127"/>
-        <item m="1" x="45"/>
-        <item m="1" x="106"/>
-        <item m="1" x="24"/>
-        <item m="1" x="83"/>
-        <item m="1" x="1"/>
-        <item m="1" x="94"/>
-        <item m="1" x="12"/>
-        <item m="1" x="71"/>
-        <item m="1" x="131"/>
-        <item m="1" x="49"/>
-        <item m="1" x="110"/>
-        <item m="1" x="28"/>
-        <item m="1" x="87"/>
-        <item m="1" x="5"/>
-        <item m="1" x="64"/>
-        <item m="1" x="124"/>
-        <item m="1" x="42"/>
-        <item m="1" x="103"/>
-        <item m="1" x="21"/>
-        <item m="1" x="80"/>
-        <item m="1" x="140"/>
-        <item m="1" x="58"/>
-        <item m="1" x="119"/>
-        <item m="1" x="37"/>
-        <item m="1" x="98"/>
-        <item m="1" x="16"/>
-        <item m="1" x="75"/>
-        <item m="1" x="135"/>
-        <item m="1" x="53"/>
-        <item m="1" x="114"/>
-        <item m="1" x="32"/>
-        <item m="1" x="92"/>
-        <item m="1" x="10"/>
-        <item m="1" x="70"/>
-        <item m="1" x="130"/>
-        <item m="1" x="48"/>
-        <item m="1" x="109"/>
-        <item m="1" x="27"/>
-        <item m="1" x="86"/>
-        <item m="1" x="4"/>
-        <item m="1" x="63"/>
-        <item m="1" x="123"/>
-        <item m="1" x="41"/>
-        <item m="1" x="102"/>
-        <item m="1" x="20"/>
-        <item m="1" x="78"/>
-        <item m="1" x="138"/>
-        <item m="1" x="56"/>
-        <item m="1" x="117"/>
-        <item m="1" x="35"/>
-        <item m="1" x="96"/>
-        <item m="1" x="14"/>
-        <item m="1" x="73"/>
-        <item m="1" x="133"/>
-        <item m="1" x="51"/>
-        <item m="1" x="112"/>
-        <item m="1" x="30"/>
-        <item m="1" x="90"/>
-        <item m="1" x="8"/>
-        <item m="1" x="68"/>
-        <item m="1" x="128"/>
-        <item m="1" x="46"/>
-        <item m="1" x="107"/>
-        <item m="1" x="25"/>
-        <item m="1" x="84"/>
-        <item m="1" x="2"/>
-        <item m="1" x="61"/>
-        <item m="1" x="95"/>
-        <item m="1" x="13"/>
-        <item m="1" x="72"/>
-        <item m="1" x="132"/>
-        <item m="1" x="50"/>
-        <item m="1" x="111"/>
-        <item m="1" x="29"/>
-        <item m="1" x="88"/>
-        <item m="1" x="6"/>
-        <item m="1" x="65"/>
-        <item m="1" x="125"/>
-        <item m="1" x="43"/>
-        <item m="1" x="104"/>
-        <item m="1" x="22"/>
-        <item m="1" x="81"/>
-        <item m="1" x="141"/>
-        <item m="1" x="59"/>
-        <item m="1" x="120"/>
-        <item m="1" x="38"/>
-        <item m="1" x="99"/>
-        <item m="1" x="17"/>
-        <item m="1" x="76"/>
-        <item m="1" x="136"/>
-        <item m="1" x="54"/>
-        <item m="1" x="115"/>
-        <item m="1" x="33"/>
-        <item m="1" x="93"/>
-        <item m="1" x="11"/>
-        <item m="1" x="79"/>
-        <item m="1" x="139"/>
-        <item m="1" x="57"/>
-        <item m="1" x="118"/>
-        <item m="1" x="36"/>
-        <item m="1" x="97"/>
-        <item m="1" x="15"/>
-        <item m="1" x="74"/>
-        <item m="1" x="134"/>
-        <item m="1" x="52"/>
-        <item m="1" x="113"/>
-        <item m="1" x="31"/>
-        <item m="1" x="91"/>
-        <item m="1" x="9"/>
-        <item x="0"/>
-        <item m="1" x="69"/>
-        <item m="1" x="129"/>
-        <item m="1" x="47"/>
-        <item m="1" x="108"/>
-        <item m="1" x="26"/>
-        <item m="1" x="85"/>
-        <item m="1" x="3"/>
-        <item m="1" x="62"/>
-        <item m="1" x="122"/>
-        <item m="1" x="40"/>
-        <item m="1" x="101"/>
-        <item m="1" x="19"/>
-        <item m="1" x="77"/>
-        <item m="1" x="137"/>
-        <item m="1" x="55"/>
-        <item m="1" x="116"/>
-        <item m="1" x="34"/>
-        <item m="1" x="66"/>
-        <item m="1" x="126"/>
-        <item m="1" x="44"/>
-        <item m="1" x="105"/>
-        <item m="1" x="23"/>
-        <item m="1" x="82"/>
-        <item m="1" x="142"/>
-        <item m="1" x="60"/>
-        <item m="1" x="121"/>
-        <item m="1" x="39"/>
-        <item m="1" x="100"/>
-        <item m="1" x="18"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i/>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="5">
-    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
-    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
-    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
-    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="4">
-    <format dxfId="50">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="49">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="48">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="47">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表3" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="F6:F7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
   <pivotFields count="9">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -7971,13 +7556,13 @@
     <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="53">
+    <format dxfId="37">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="52">
+    <format dxfId="36">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="35">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -7985,261 +7570,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表13" cacheId="7" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
-  <location ref="AD2:AH14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="5">
-        <item h="1" m="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
-      <items count="25">
-        <item m="1" x="24"/>
-        <item m="1" x="19"/>
-        <item m="1" x="14"/>
-        <item m="1" x="23"/>
-        <item x="11"/>
-        <item m="1" x="20"/>
-        <item m="1" x="16"/>
-        <item m="1" x="18"/>
-        <item m="1" x="13"/>
-        <item m="1" x="22"/>
-        <item m="1" x="12"/>
-        <item m="1" x="15"/>
-        <item m="1" x="21"/>
-        <item m="1" x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="10"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="10">
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="2">
-    <field x="1"/>
-    <field x="-2"/>
-  </colFields>
-  <colItems count="4">
-    <i/>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-    <i/>
-    <i r="1" i="1">
-      <x v="1"/>
-    </i>
-  </colItems>
-  <dataFields count="2">
-    <dataField name="计数 / 套餐信息" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="求和 / 成交价格" fld="2" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="R6:S9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="42">
-        <item m="1" x="18"/>
-        <item m="1" x="31"/>
-        <item m="1" x="30"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="25"/>
-        <item m="1" x="36"/>
-        <item m="1" x="23"/>
-        <item m="1" x="35"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="37"/>
-        <item m="1" x="28"/>
-        <item x="12"/>
-        <item m="1" x="17"/>
-        <item m="1" x="26"/>
-        <item m="1" x="15"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="19"/>
-        <item x="3"/>
-        <item m="1" x="33"/>
-        <item m="1" x="21"/>
-        <item m="1" x="20"/>
-        <item x="10"/>
-        <item m="1" x="22"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="58">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="57">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="56">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="55">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="54">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable11.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表10" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="U16:U17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="12">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -8302,13 +7634,13 @@
     <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="3">
-    <format dxfId="61">
+    <format dxfId="40">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="60">
+    <format dxfId="39">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="59">
+    <format dxfId="38">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
@@ -8316,409 +7648,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="O6:P8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="15">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="42">
-        <item m="1" x="18"/>
-        <item m="1" x="31"/>
-        <item m="1" x="30"/>
-        <item m="1" x="40"/>
-        <item m="1" x="27"/>
-        <item m="1" x="34"/>
-        <item m="1" x="38"/>
-        <item m="1" x="25"/>
-        <item m="1" x="36"/>
-        <item m="1" x="23"/>
-        <item m="1" x="35"/>
-        <item m="1" x="14"/>
-        <item m="1" x="29"/>
-        <item m="1" x="16"/>
-        <item m="1" x="13"/>
-        <item m="1" x="37"/>
-        <item m="1" x="28"/>
-        <item x="12"/>
-        <item m="1" x="17"/>
-        <item m="1" x="26"/>
-        <item m="1" x="15"/>
-        <item m="1" x="32"/>
-        <item m="1" x="24"/>
-        <item m="1" x="19"/>
-        <item x="3"/>
-        <item m="1" x="33"/>
-        <item m="1" x="21"/>
-        <item m="1" x="20"/>
-        <item x="10"/>
-        <item m="1" x="22"/>
-        <item m="1" x="39"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item x="4"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item x="9"/>
-        <item x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="5">
-        <item x="1"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="7"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="2"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="8">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="7">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="6">
-      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="5">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="4">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表5" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="I6:J8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="11">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="4">
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="6">
-        <item x="2"/>
-        <item x="1"/>
-        <item m="1" x="3"/>
-        <item m="1" x="4"/>
-        <item x="0"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="2">
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="5">
-    <format dxfId="13">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="12">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="11">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="10">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="9">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
-  <pivotFields count="12">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="7">
-        <item h="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" showAll="0">
-      <items count="13">
-        <item x="0"/>
-        <item m="1" x="3"/>
-        <item m="1" x="2"/>
-        <item m="1" x="8"/>
-        <item m="1" x="1"/>
-        <item m="1" x="7"/>
-        <item m="1" x="10"/>
-        <item m="1" x="5"/>
-        <item m="1" x="9"/>
-        <item m="1" x="4"/>
-        <item m="1" x="6"/>
-        <item m="1" x="11"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="3">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-    <pageField fld="2" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="16">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="15">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="14">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="6" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="L6:M9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="10">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="5">
-        <item h="1" m="1" x="3"/>
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="13">
-        <item h="1" m="1" x="7"/>
-        <item h="1" m="1" x="5"/>
-        <item h="1" m="1" x="8"/>
-        <item h="1" m="1" x="9"/>
-        <item h="1" m="1" x="11"/>
-        <item h="1" x="3"/>
-        <item h="1" m="1" x="10"/>
-        <item h="1" m="1" x="4"/>
-        <item h="1" m="1" x="6"/>
-        <item h="1" x="0"/>
-        <item x="1"/>
-        <item h="1" x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" dataField="1" showAll="0">
-      <items count="8">
-        <item m="1" x="5"/>
-        <item m="1" x="3"/>
-        <item m="1" x="6"/>
-        <item x="0"/>
-        <item m="1" x="4"/>
-        <item x="1"/>
-        <item x="2"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="6">
-    <format dxfId="22">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="21">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="20">
-      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
-    </format>
-    <format dxfId="19">
-      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
-        <references count="1">
-          <reference field="4" count="1">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="18">
-      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="17">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable12.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表2" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A16:D17" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
@@ -8993,7 +7924,7 @@
     <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="31">
+    <format dxfId="49">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9002,7 +7933,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="30">
+    <format dxfId="48">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9011,13 +7942,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="47">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="28">
+    <format dxfId="46">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="27">
+    <format dxfId="45">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9026,7 +7957,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="26">
+    <format dxfId="44">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9035,7 +7966,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="25">
+    <format dxfId="43">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9044,7 +7975,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="24">
+    <format dxfId="42">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9053,7 +7984,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="23">
+    <format dxfId="41">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9067,201 +7998,8 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item h="1" x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="8">
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item h="1" x="5"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="2">
-    <pageField fld="0" hier="-1"/>
-    <pageField fld="1" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="34">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
-  <location ref="A25:C39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="9">
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="2">
-        <item x="0"/>
-        <item h="1" x="1"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
-      <items count="7">
-        <item h="1" x="6"/>
-        <item h="1" x="1"/>
-        <item h="1" x="2"/>
-        <item h="1" x="3"/>
-        <item x="4"/>
-        <item h="1" x="0"/>
-        <item x="5"/>
-      </items>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="18">
-        <item x="11"/>
-        <item x="12"/>
-        <item x="8"/>
-        <item m="1" x="17"/>
-        <item x="0"/>
-        <item x="2"/>
-        <item x="10"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="14"/>
-        <item x="5"/>
-        <item x="6"/>
-        <item x="15"/>
-        <item m="1" x="16"/>
-        <item x="1"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="13"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="2">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-            <reference field="1" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="6"/>
-  </rowFields>
-  <rowItems count="13">
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i/>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand"/>
-  </rowItems>
-  <colFields count="1">
-    <field x="1"/>
-  </colFields>
-  <colItems count="2">
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="0" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="计数项:顾客标签" fld="6" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <formats count="3">
-    <format dxfId="37">
-      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
-    </format>
-  </formats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="3" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
+<file path=xl/pivotTables/pivotTable13.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表1" cacheId="59" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" outline="1" outlineData="1" compactData="0" multipleFieldFilters="0">
   <location ref="A6:D7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
   <pivotFields count="7">
     <pivotField axis="axisPage" compact="0" multipleItemSelectionAllowed="1" showAll="0">
@@ -9536,7 +8274,7 @@
     <dataField name="跳失率" fld="6" subtotal="average" baseField="0" baseItem="3"/>
   </dataFields>
   <formats count="9">
-    <format dxfId="46">
+    <format dxfId="58">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9545,7 +8283,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="57">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9554,13 +8292,13 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="44">
+    <format dxfId="56">
       <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
     </format>
-    <format dxfId="43">
+    <format dxfId="55">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="42">
+    <format dxfId="54">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9569,7 +8307,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="41">
+    <format dxfId="53">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9578,7 +8316,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="40">
+    <format dxfId="52">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9587,7 +8325,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="39">
+    <format dxfId="51">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -9596,7 +8334,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="38">
+    <format dxfId="50">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -9604,6 +8342,1268 @@
           </reference>
         </references>
       </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable14.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表4" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="F16:F17" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:姓名" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="61">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="60">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="59">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表12" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="X17:AB18" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item m="1" x="2"/>
+        <item m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="144">
+        <item m="1" x="89"/>
+        <item m="1" x="7"/>
+        <item m="1" x="67"/>
+        <item m="1" x="127"/>
+        <item m="1" x="45"/>
+        <item m="1" x="106"/>
+        <item m="1" x="24"/>
+        <item m="1" x="83"/>
+        <item m="1" x="1"/>
+        <item m="1" x="94"/>
+        <item m="1" x="12"/>
+        <item m="1" x="71"/>
+        <item m="1" x="131"/>
+        <item m="1" x="49"/>
+        <item m="1" x="110"/>
+        <item m="1" x="28"/>
+        <item m="1" x="87"/>
+        <item m="1" x="5"/>
+        <item m="1" x="64"/>
+        <item m="1" x="124"/>
+        <item m="1" x="42"/>
+        <item m="1" x="103"/>
+        <item m="1" x="21"/>
+        <item m="1" x="80"/>
+        <item m="1" x="140"/>
+        <item m="1" x="58"/>
+        <item m="1" x="119"/>
+        <item m="1" x="37"/>
+        <item m="1" x="98"/>
+        <item m="1" x="16"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="53"/>
+        <item m="1" x="114"/>
+        <item m="1" x="32"/>
+        <item m="1" x="92"/>
+        <item m="1" x="10"/>
+        <item m="1" x="70"/>
+        <item m="1" x="130"/>
+        <item m="1" x="48"/>
+        <item m="1" x="109"/>
+        <item m="1" x="27"/>
+        <item m="1" x="86"/>
+        <item m="1" x="4"/>
+        <item m="1" x="63"/>
+        <item m="1" x="123"/>
+        <item m="1" x="41"/>
+        <item m="1" x="102"/>
+        <item m="1" x="20"/>
+        <item m="1" x="78"/>
+        <item m="1" x="138"/>
+        <item m="1" x="56"/>
+        <item m="1" x="117"/>
+        <item m="1" x="35"/>
+        <item m="1" x="96"/>
+        <item m="1" x="14"/>
+        <item m="1" x="73"/>
+        <item m="1" x="133"/>
+        <item m="1" x="51"/>
+        <item m="1" x="112"/>
+        <item m="1" x="30"/>
+        <item m="1" x="90"/>
+        <item m="1" x="8"/>
+        <item m="1" x="68"/>
+        <item m="1" x="128"/>
+        <item m="1" x="46"/>
+        <item m="1" x="107"/>
+        <item m="1" x="25"/>
+        <item m="1" x="84"/>
+        <item m="1" x="2"/>
+        <item m="1" x="61"/>
+        <item m="1" x="95"/>
+        <item m="1" x="13"/>
+        <item m="1" x="72"/>
+        <item m="1" x="132"/>
+        <item m="1" x="50"/>
+        <item m="1" x="111"/>
+        <item m="1" x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="6"/>
+        <item m="1" x="65"/>
+        <item m="1" x="125"/>
+        <item m="1" x="43"/>
+        <item m="1" x="104"/>
+        <item m="1" x="22"/>
+        <item m="1" x="81"/>
+        <item m="1" x="141"/>
+        <item m="1" x="59"/>
+        <item m="1" x="120"/>
+        <item m="1" x="38"/>
+        <item m="1" x="99"/>
+        <item m="1" x="17"/>
+        <item m="1" x="76"/>
+        <item m="1" x="136"/>
+        <item m="1" x="54"/>
+        <item m="1" x="115"/>
+        <item m="1" x="33"/>
+        <item m="1" x="93"/>
+        <item m="1" x="11"/>
+        <item m="1" x="79"/>
+        <item m="1" x="139"/>
+        <item m="1" x="57"/>
+        <item m="1" x="118"/>
+        <item m="1" x="36"/>
+        <item m="1" x="97"/>
+        <item m="1" x="15"/>
+        <item m="1" x="74"/>
+        <item m="1" x="134"/>
+        <item m="1" x="52"/>
+        <item m="1" x="113"/>
+        <item m="1" x="31"/>
+        <item m="1" x="91"/>
+        <item m="1" x="9"/>
+        <item x="0"/>
+        <item m="1" x="69"/>
+        <item m="1" x="129"/>
+        <item m="1" x="47"/>
+        <item m="1" x="108"/>
+        <item m="1" x="26"/>
+        <item m="1" x="85"/>
+        <item m="1" x="3"/>
+        <item m="1" x="62"/>
+        <item m="1" x="122"/>
+        <item m="1" x="40"/>
+        <item m="1" x="101"/>
+        <item m="1" x="19"/>
+        <item m="1" x="77"/>
+        <item m="1" x="137"/>
+        <item m="1" x="55"/>
+        <item m="1" x="116"/>
+        <item m="1" x="34"/>
+        <item m="1" x="66"/>
+        <item m="1" x="126"/>
+        <item m="1" x="44"/>
+        <item m="1" x="105"/>
+        <item m="1" x="23"/>
+        <item m="1" x="82"/>
+        <item m="1" x="142"/>
+        <item m="1" x="60"/>
+        <item m="1" x="121"/>
+        <item m="1" x="39"/>
+        <item m="1" x="100"/>
+        <item m="1" x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="8">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="5">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表9" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="U6:U7" firstHeaderRow="1" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="12">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="7">
+        <item h="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="13">
+        <item x="0"/>
+        <item m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item m="1" x="8"/>
+        <item m="1" x="1"/>
+        <item m="1" x="7"/>
+        <item m="1" x="10"/>
+        <item m="1" x="5"/>
+        <item m="1" x="9"/>
+        <item m="1" x="4"/>
+        <item m="1" x="6"/>
+        <item m="1" x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="11">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="10">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="9">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表8" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="R6:S9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="42">
+        <item m="1" x="18"/>
+        <item m="1" x="31"/>
+        <item m="1" x="30"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="25"/>
+        <item m="1" x="36"/>
+        <item m="1" x="23"/>
+        <item m="1" x="35"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="16"/>
+        <item m="1" x="13"/>
+        <item m="1" x="37"/>
+        <item m="1" x="28"/>
+        <item x="12"/>
+        <item m="1" x="17"/>
+        <item m="1" x="26"/>
+        <item m="1" x="15"/>
+        <item m="1" x="32"/>
+        <item m="1" x="24"/>
+        <item m="1" x="19"/>
+        <item x="3"/>
+        <item m="1" x="33"/>
+        <item m="1" x="21"/>
+        <item m="1" x="20"/>
+        <item x="10"/>
+        <item m="1" x="22"/>
+        <item m="1" x="39"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="16">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="15">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="14">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="13">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="12">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表7" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="O6:P8" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="42">
+        <item m="1" x="18"/>
+        <item m="1" x="31"/>
+        <item m="1" x="30"/>
+        <item m="1" x="40"/>
+        <item m="1" x="27"/>
+        <item m="1" x="34"/>
+        <item m="1" x="38"/>
+        <item m="1" x="25"/>
+        <item m="1" x="36"/>
+        <item m="1" x="23"/>
+        <item m="1" x="35"/>
+        <item m="1" x="14"/>
+        <item m="1" x="29"/>
+        <item m="1" x="16"/>
+        <item m="1" x="13"/>
+        <item m="1" x="37"/>
+        <item m="1" x="28"/>
+        <item x="12"/>
+        <item m="1" x="17"/>
+        <item m="1" x="26"/>
+        <item m="1" x="15"/>
+        <item m="1" x="32"/>
+        <item m="1" x="24"/>
+        <item m="1" x="19"/>
+        <item x="3"/>
+        <item m="1" x="33"/>
+        <item m="1" x="21"/>
+        <item m="1" x="20"/>
+        <item x="10"/>
+        <item m="1" x="22"/>
+        <item m="1" x="39"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="11"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="5">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="2">
+    <i>
+      <x v="2"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:星级" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="5">
+    <format dxfId="21">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="20">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="19">
+      <pivotArea field="7" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="18">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="17">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表11" cacheId="60" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="X6:AB7" firstHeaderRow="0" firstDataRow="1" firstDataCol="0" rowPageCount="3" colPageCount="1"/>
+  <pivotFields count="15">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item m="1" x="2"/>
+        <item h="1" x="1"/>
+        <item h="1" x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="8">
+        <item h="1" x="0"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="3"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="1"/>
+        <item m="1" x="5"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" showAll="0">
+      <items count="144">
+        <item m="1" x="89"/>
+        <item m="1" x="7"/>
+        <item m="1" x="67"/>
+        <item m="1" x="127"/>
+        <item m="1" x="45"/>
+        <item m="1" x="106"/>
+        <item m="1" x="24"/>
+        <item m="1" x="83"/>
+        <item m="1" x="1"/>
+        <item m="1" x="94"/>
+        <item m="1" x="12"/>
+        <item m="1" x="71"/>
+        <item m="1" x="131"/>
+        <item m="1" x="49"/>
+        <item m="1" x="110"/>
+        <item m="1" x="28"/>
+        <item m="1" x="87"/>
+        <item m="1" x="5"/>
+        <item m="1" x="64"/>
+        <item m="1" x="124"/>
+        <item m="1" x="42"/>
+        <item m="1" x="103"/>
+        <item m="1" x="21"/>
+        <item m="1" x="80"/>
+        <item m="1" x="140"/>
+        <item m="1" x="58"/>
+        <item m="1" x="119"/>
+        <item m="1" x="37"/>
+        <item m="1" x="98"/>
+        <item m="1" x="16"/>
+        <item m="1" x="75"/>
+        <item m="1" x="135"/>
+        <item m="1" x="53"/>
+        <item m="1" x="114"/>
+        <item m="1" x="32"/>
+        <item m="1" x="92"/>
+        <item m="1" x="10"/>
+        <item m="1" x="70"/>
+        <item m="1" x="130"/>
+        <item m="1" x="48"/>
+        <item m="1" x="109"/>
+        <item m="1" x="27"/>
+        <item m="1" x="86"/>
+        <item m="1" x="4"/>
+        <item m="1" x="63"/>
+        <item m="1" x="123"/>
+        <item m="1" x="41"/>
+        <item m="1" x="102"/>
+        <item m="1" x="20"/>
+        <item m="1" x="78"/>
+        <item m="1" x="138"/>
+        <item m="1" x="56"/>
+        <item m="1" x="117"/>
+        <item m="1" x="35"/>
+        <item m="1" x="96"/>
+        <item m="1" x="14"/>
+        <item m="1" x="73"/>
+        <item m="1" x="133"/>
+        <item m="1" x="51"/>
+        <item m="1" x="112"/>
+        <item m="1" x="30"/>
+        <item m="1" x="90"/>
+        <item m="1" x="8"/>
+        <item m="1" x="68"/>
+        <item m="1" x="128"/>
+        <item m="1" x="46"/>
+        <item m="1" x="107"/>
+        <item m="1" x="25"/>
+        <item m="1" x="84"/>
+        <item m="1" x="2"/>
+        <item m="1" x="61"/>
+        <item m="1" x="95"/>
+        <item m="1" x="13"/>
+        <item m="1" x="72"/>
+        <item m="1" x="132"/>
+        <item m="1" x="50"/>
+        <item m="1" x="111"/>
+        <item m="1" x="29"/>
+        <item m="1" x="88"/>
+        <item m="1" x="6"/>
+        <item m="1" x="65"/>
+        <item m="1" x="125"/>
+        <item m="1" x="43"/>
+        <item m="1" x="104"/>
+        <item m="1" x="22"/>
+        <item m="1" x="81"/>
+        <item m="1" x="141"/>
+        <item m="1" x="59"/>
+        <item m="1" x="120"/>
+        <item m="1" x="38"/>
+        <item m="1" x="99"/>
+        <item m="1" x="17"/>
+        <item m="1" x="76"/>
+        <item m="1" x="136"/>
+        <item m="1" x="54"/>
+        <item m="1" x="115"/>
+        <item m="1" x="33"/>
+        <item m="1" x="93"/>
+        <item m="1" x="11"/>
+        <item m="1" x="79"/>
+        <item m="1" x="139"/>
+        <item m="1" x="57"/>
+        <item m="1" x="118"/>
+        <item m="1" x="36"/>
+        <item m="1" x="97"/>
+        <item m="1" x="15"/>
+        <item m="1" x="74"/>
+        <item m="1" x="134"/>
+        <item m="1" x="52"/>
+        <item m="1" x="113"/>
+        <item m="1" x="31"/>
+        <item m="1" x="91"/>
+        <item m="1" x="9"/>
+        <item x="0"/>
+        <item m="1" x="69"/>
+        <item m="1" x="129"/>
+        <item m="1" x="47"/>
+        <item m="1" x="108"/>
+        <item m="1" x="26"/>
+        <item m="1" x="85"/>
+        <item m="1" x="3"/>
+        <item m="1" x="62"/>
+        <item m="1" x="122"/>
+        <item m="1" x="40"/>
+        <item m="1" x="101"/>
+        <item m="1" x="19"/>
+        <item m="1" x="77"/>
+        <item m="1" x="137"/>
+        <item m="1" x="55"/>
+        <item m="1" x="116"/>
+        <item m="1" x="34"/>
+        <item m="1" x="66"/>
+        <item m="1" x="126"/>
+        <item m="1" x="44"/>
+        <item m="1" x="105"/>
+        <item m="1" x="23"/>
+        <item m="1" x="82"/>
+        <item m="1" x="142"/>
+        <item m="1" x="60"/>
+        <item m="1" x="121"/>
+        <item m="1" x="39"/>
+        <item m="1" x="100"/>
+        <item m="1" x="18"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i/>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <pageFields count="3">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+    <pageField fld="2" hier="-1"/>
+  </pageFields>
+  <dataFields count="5">
+    <dataField name="求和项:花费" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="求和项:点击" fld="7" baseField="0" baseItem="0"/>
+    <dataField name="平均值项:点击均价" fld="8" subtotal="average" baseField="0" baseItem="1"/>
+    <dataField name="求和项:曝光" fld="6" baseField="0" baseItem="0"/>
+    <dataField name="求和项:商户浏览量" fld="9" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="4">
+    <format dxfId="25">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="24">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="23">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="22">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表13" cacheId="63" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0">
+  <location ref="AD2:AH14" firstHeaderRow="1" firstDataRow="3" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisCol" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="5">
+        <item h="1" m="1" x="4"/>
+        <item h="1" x="3"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0">
+      <items count="25">
+        <item m="1" x="24"/>
+        <item m="1" x="19"/>
+        <item m="1" x="14"/>
+        <item m="1" x="23"/>
+        <item x="11"/>
+        <item m="1" x="20"/>
+        <item m="1" x="16"/>
+        <item m="1" x="18"/>
+        <item m="1" x="13"/>
+        <item m="1" x="22"/>
+        <item m="1" x="12"/>
+        <item m="1" x="15"/>
+        <item m="1" x="21"/>
+        <item m="1" x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item x="9"/>
+        <item x="10"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" subtotalTop="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="7"/>
+  </rowFields>
+  <rowItems count="10">
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="2">
+    <field x="1"/>
+    <field x="-2"/>
+  </colFields>
+  <colItems count="4">
+    <i/>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+    <i/>
+    <i r="1" i="1">
+      <x v="1"/>
+    </i>
+  </colItems>
+  <dataFields count="2">
+    <dataField name="计数 / 套餐信息" fld="7" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="求和 / 成交价格" fld="2" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable8.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表6" cacheId="62" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="L6:M9" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="2" colPageCount="1"/>
+  <pivotFields count="10">
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="5">
+        <item h="1" m="1" x="3"/>
+        <item x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="13">
+        <item h="1" m="1" x="7"/>
+        <item h="1" m="1" x="5"/>
+        <item h="1" m="1" x="8"/>
+        <item h="1" m="1" x="9"/>
+        <item h="1" m="1" x="11"/>
+        <item h="1" x="3"/>
+        <item h="1" m="1" x="10"/>
+        <item h="1" m="1" x="4"/>
+        <item h="1" m="1" x="6"/>
+        <item h="1" x="0"/>
+        <item x="1"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" dataField="1" showAll="0">
+      <items count="8">
+        <item m="1" x="5"/>
+        <item m="1" x="3"/>
+        <item m="1" x="6"/>
+        <item x="0"/>
+        <item m="1" x="4"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="2">
+    <pageField fld="0" hier="-1"/>
+    <pageField fld="1" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:订单来源" fld="4" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="6">
+    <format dxfId="31">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="30">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="29">
+      <pivotArea field="4" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisRow" fieldPosition="0"/>
+    </format>
+    <format dxfId="28">
+      <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
+        <references count="1">
+          <reference field="4" count="1">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="27">
+      <pivotArea dataOnly="0" labelOnly="1" grandRow="1" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="26">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
+    </format>
+  </formats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable9.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="数据透视表14" cacheId="56" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="值" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" colGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" multipleFieldFilters="0" chartFormat="3">
+  <location ref="A25:C39" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="9">
+    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="2">
+        <item x="0"/>
+        <item h="1" x="1"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisCol" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0" defaultSubtotal="0">
+      <items count="7">
+        <item h="1" x="6"/>
+        <item h="1" x="1"/>
+        <item h="1" x="2"/>
+        <item h="1" x="3"/>
+        <item x="4"/>
+        <item h="1" x="0"/>
+        <item x="5"/>
+      </items>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" dataField="1" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="18">
+        <item x="11"/>
+        <item x="12"/>
+        <item x="8"/>
+        <item m="1" x="17"/>
+        <item x="0"/>
+        <item x="2"/>
+        <item x="10"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="14"/>
+        <item x="5"/>
+        <item x="6"/>
+        <item x="15"/>
+        <item m="1" x="16"/>
+        <item x="1"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="13"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="2">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+            <reference field="1" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="6"/>
+  </rowFields>
+  <rowItems count="13">
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i/>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand"/>
+  </rowItems>
+  <colFields count="1">
+    <field x="1"/>
+  </colFields>
+  <colItems count="2">
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="0" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="计数项:顾客标签" fld="6" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <formats count="3">
+    <format dxfId="34">
+      <pivotArea type="all" dataOnly="0" outline="0" fieldPosition="0"/>
+    </format>
+    <format dxfId="33">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="32">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" axis="axisValues" fieldPosition="0"/>
     </format>
   </formats>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
@@ -14224,8 +14224,8 @@
   <sheetPr codeName="工作表16"/>
   <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -18630,8 +18630,11 @@
   <sheetPr codeName="工作表8"/>
   <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="124" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="P16" sqref="C16:P31"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="124" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+      <pivotSelection pane="bottomRight" activeRow="12" activeCol="5" previousRow="12" previousCol="5" click="1" r:id="rId14">
+        <pivotArea field="0" type="button" dataOnly="0" labelOnly="1" outline="0" axis="axisPage" fieldPosition="0"/>
+      </pivotSelection>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
